--- a/SCE AMI - Process Hierarchy.xlsx
+++ b/SCE AMI - Process Hierarchy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eyus-my.sharepoint.com/personal/tony_calabro_ey_com/Documents/Desktop/Cursor/Hierarchy 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{462CCA21-8B29-4740-B159-4243791C0B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{462CCA21-8B29-4740-B159-4243791C0B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49AFAC6C-1153-4A92-AF19-5F2C71574E86}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C5CF7D8D-18C1-4DA6-BBC5-CBC3C1BDFBAD}"/>
   </bookViews>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="2" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -3720,7 +3720,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3B2941B5-ACDB-40EF-B7BA-9F0A5B11F66C}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3B2941B5-ACDB-40EF-B7BA-9F0A5B11F66C}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A18:B26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -4135,11 +4135,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8892926-E8FC-4E51-8265-E6D97D7EE353}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:H107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B102"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4362,7 +4361,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="29.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
@@ -4986,7 +4985,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="29.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>65</v>
       </c>
@@ -5194,7 +5193,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="52.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
         <v>116</v>
       </c>
@@ -5220,7 +5219,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="52.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
         <v>116</v>
       </c>
@@ -5324,7 +5323,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="57.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
         <v>116</v>
       </c>
@@ -5350,7 +5349,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="90.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="11" t="s">
         <v>116</v>
       </c>
@@ -5688,7 +5687,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="72" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="11" t="s">
         <v>116</v>
       </c>
@@ -5714,7 +5713,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="57.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="11" t="s">
         <v>116</v>
       </c>
@@ -5766,7 +5765,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="29.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="11" t="s">
         <v>116</v>
       </c>
@@ -5792,7 +5791,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="29.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="11" t="s">
         <v>116</v>
       </c>
@@ -5818,7 +5817,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="72" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="11" t="s">
         <v>116</v>
       </c>
@@ -5844,7 +5843,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="72" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="11" t="s">
         <v>191</v>
       </c>
@@ -5870,7 +5869,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="29.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="11" t="s">
         <v>191</v>
       </c>
@@ -5896,7 +5895,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="43.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="11" t="s">
         <v>191</v>
       </c>
@@ -5922,7 +5921,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="29.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="11" t="s">
         <v>191</v>
       </c>
@@ -5948,7 +5947,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="43.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="11" t="s">
         <v>191</v>
       </c>
@@ -5974,7 +5973,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="43.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="11" t="s">
         <v>191</v>
       </c>
@@ -6000,7 +5999,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="29.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="11" t="s">
         <v>191</v>
       </c>
@@ -6026,7 +6025,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="29.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="11" t="s">
         <v>191</v>
       </c>
@@ -6078,7 +6077,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="57.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="11" t="s">
         <v>191</v>
       </c>
@@ -6104,7 +6103,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="57.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="11" t="s">
         <v>191</v>
       </c>
@@ -6182,7 +6181,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="57.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="11" t="s">
         <v>191</v>
       </c>
@@ -6208,7 +6207,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="57.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="11" t="s">
         <v>191</v>
       </c>
@@ -6234,7 +6233,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="100.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="11" t="s">
         <v>191</v>
       </c>
@@ -6286,7 +6285,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="43.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="11" t="s">
         <v>191</v>
       </c>
@@ -6312,7 +6311,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="72" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="11" t="s">
         <v>191</v>
       </c>
@@ -6338,7 +6337,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="72" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="11" t="s">
         <v>191</v>
       </c>
@@ -6364,7 +6363,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="29.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="11" t="s">
         <v>191</v>
       </c>
@@ -6390,7 +6389,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="57.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="11" t="s">
         <v>191</v>
       </c>
@@ -6416,7 +6415,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="43.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="11" t="s">
         <v>191</v>
       </c>
@@ -6442,7 +6441,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="43.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="11" t="s">
         <v>191</v>
       </c>
@@ -6468,7 +6467,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="72" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="11" t="s">
         <v>191</v>
       </c>
@@ -6800,7 +6799,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="72" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="11" t="s">
         <v>295</v>
       </c>
@@ -6826,7 +6825,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="100.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="11" t="s">
         <v>295</v>
       </c>
@@ -6852,7 +6851,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="29.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="11" t="s">
         <v>295</v>
       </c>
@@ -6878,7 +6877,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="29.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="11" t="s">
         <v>295</v>
       </c>
@@ -6904,7 +6903,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="86.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="11" t="s">
         <v>295</v>
       </c>
@@ -6931,16 +6930,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H107" xr:uid="{F8892926-E8FC-4E51-8265-E6D97D7EE353}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="IT Release 1"/>
-        <filter val="IT Release 1 (retouched in IT Release 2 and 3)"/>
-        <filter val="IT Release 1 (retouched in IT Release 2)"/>
-        <filter val="IT Release 1 (retouched in IT Release 3)"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H107" xr:uid="{F8892926-E8FC-4E51-8265-E6D97D7EE353}"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11517,15 +11507,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DFB9E5947890A84F90C1025035B3A9E9" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0fe1b0914d5c8b09183d39f4cd0f7192">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="139fca70-673f-44e1-94c2-b523bb9c108c" xmlns:ns3="7eaf932d-7370-48c5-9459-ae540daf9d7d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="356422204f896a562ca62bf92a067cf0" ns2:_="" ns3:_="">
     <xsd:import namespace="139fca70-673f-44e1-94c2-b523bb9c108c"/>
@@ -11732,7 +11713,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="139fca70-673f-44e1-94c2-b523bb9c108c">
@@ -11743,15 +11724,16 @@
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BB2BB8B-BA4E-4835-AC34-431A62162A7D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42A97454-B7ED-4BA8-A1AC-B982151F7AF7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11770,7 +11752,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B57CF69-5D19-450C-935B-68EC43A8DA31}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -11785,4 +11767,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BB2BB8B-BA4E-4835-AC34-431A62162A7D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SCE AMI - Process Hierarchy.xlsx
+++ b/SCE AMI - Process Hierarchy.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eyus-my.sharepoint.com/personal/tony_calabro_ey_com/Documents/Desktop/Cursor/Hierarchy 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eyus.sharepoint.com/sites/SCEPursuitTeam/Shared Documents/AMI 2.0 OCM PMO RFP/7 - Oral Presentation Rd 2/BRD Artifacts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{462CCA21-8B29-4740-B159-4243791C0B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49AFAC6C-1153-4A92-AF19-5F2C71574E86}"/>
+  <xr:revisionPtr revIDLastSave="776" documentId="8_{D0A48B66-DD14-4E33-BEEA-FA64DE0E4EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AAF7B64-D9F9-46E6-9284-DC50927ADA1D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C5CF7D8D-18C1-4DA6-BBC5-CBC3C1BDFBAD}"/>
   </bookViews>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2198" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2198" uniqueCount="706">
   <si>
     <t>L1 Process Name</t>
   </si>
@@ -252,9 +252,6 @@
     <t>Reconcile installation records between systems</t>
   </si>
   <si>
-    <t>Cross-check installation completion data between Asset Management, CIS MDMS and HES for consistency.</t>
-  </si>
-  <si>
     <t>Manage customer communication during deployment</t>
   </si>
   <si>
@@ -270,18 +267,12 @@
     <t>Coordinate installation and commissioning</t>
   </si>
   <si>
-    <t>Assign and execute MIV meteer deployment work orders</t>
-  </si>
-  <si>
     <t>Dispatch and complete meter installation work orders via MIV or contractor systems, updating all related records.</t>
   </si>
   <si>
     <t>Assign and execute utility-owned deployment work orders</t>
   </si>
   <si>
-    <t>Dispatch and complete meter installation work orders via utility systems, updating all related records.</t>
-  </si>
-  <si>
     <t>Close MIV work orders and update dashboards</t>
   </si>
   <si>
@@ -381,15 +372,9 @@
     <t>Perform remote disconnect / reconnect for move-out</t>
   </si>
   <si>
-    <t>Execute and validate remote meter disconnect commands in coordination with CIS and MDMS.</t>
-  </si>
-  <si>
     <t>Perform remote disconnect / reconnect for move-in</t>
   </si>
   <si>
-    <t>Execute and validate remote meter redisconnect commands in coordination with CIS and MDMS.</t>
-  </si>
-  <si>
     <t>Perform remote disconnect for non-payment</t>
   </si>
   <si>
@@ -406,9 +391,6 @@
   </si>
   <si>
     <t>Install and maintain network access points</t>
-  </si>
-  <si>
-    <t>Coordinate installation of network access points or routers supporting AMI communications.</t>
   </si>
   <si>
     <t>Remove network access points and decommission interfaces</t>
@@ -508,9 +490,6 @@
   </si>
   <si>
     <t>Calculate and validate register-based bills</t>
-  </si>
-  <si>
-    <t>Execute CIS billing logic for scalar rates, utilizing start and stop register reads to determine billable usage.</t>
   </si>
   <si>
     <t>Generate and distribute bill print and e-bills</t>
@@ -2365,12 +2344,192 @@
   <si>
     <t>Use Case 13 – Post Event Analysis, Use Case 15 – Fault &amp; Incipient Fault Identification on the Distribution System</t>
   </si>
+  <si>
+    <t>This process encompasses the advanced engineering workflow of requesting on-demand high-resolution waveform data captures from capable meters via the HES following a complex grid event, and utilizing specialized power quality analysis software to interpret pre- and post-fault signatures to determine root cause (e.g., vegetation contact, equipment failure).</t>
+  </si>
+  <si>
+    <t>Onboard of new metering and network assets, involving the ingestion of vendor shipment files to create serialized asset records in the EAM, and the subsequent synchronization of this master data to the Head-End System (HES) and Meter Data Management System (MDMS) to establish initial device state and cross-system linkages, including resolving data loading errors or identifier mismatches.</t>
+  </si>
+  <si>
+    <t>Manage end-to-end lifecycle of defective or removed network infrastructure devices, including validating warranty status against vendor contracts, processing Return Merchandise Authorization (RMA) shipments via the EAM, managing internal or third-party refurbishment testing loops, and reconciling inventory records to reflect scrapped, returned, or restocked status.</t>
+  </si>
+  <si>
+    <t>Receive hardware shipments at utility warehouses, including verifying vendor packing lists against purchase orders in the Enterprise Asset Management (EAM) system, conducting physical inspections and statistical sample testing for conformance to technical specifications, and managing the disposition of failed or damaged assets through quarantine and vendor return workflows.</t>
+  </si>
+  <si>
+    <t>Automated and manual data reconciliation activities required to ensure field installation data remains consistent across the core AMI landscape, specifically identifying, investigating, and resolving data discrepancies between the Meter Installation Vendor (MIV) system, EAM, CIS, MDMS, and HES regarding device status, premise association, and connectivity.</t>
+  </si>
+  <si>
+    <t>Generate and deliver of pre-deployment notifications to customers based on the MIV's rolling deployment schedule, utilizing customer data from CIS to determine preferred channels (e.g., email, mail, text) and language requirements, conveying critical information regarding access needs and temporary outages, and managing undeliverable notifications.</t>
+  </si>
+  <si>
+    <t>Assign and execute MIV meter deployment work orders</t>
+  </si>
+  <si>
+    <t>Assign and execute installation work orders executed by internal utility field crews (often for complex metering or hard-to-access sites), involving the creation and dispatch of orders through the utility's Mobile Workforce Management (MWM) system, physical field execution, and the capture and synchronization of completion data back to EAM and CIS.</t>
+  </si>
+  <si>
+    <t>Assign and executie installation work orders to the Meter Installation Vendor (MIV), from the initial grouping of premises based on deployment route planning to the digital dispatch of orders to MIV field devices, the physical execution of the meter exchange, and the field capture of completion data (including photos and GPS) or "Unable to Complete" (UTC) exception codes.</t>
+  </si>
+  <si>
+    <t>Ingest and validate completed work order files received daily from the MIV system, update premise and service status in CIS and EAM, trigger downstream provisioning processes, and feed deployment status dashboards while flagging data validation errors for back-office resolution.</t>
+  </si>
+  <si>
+    <t>Trigger post-installation communications once a meter exchange is successfully validated in utility systems (CIS/MDMS), confirming service restoration to the customer via their preferred channel, providing initial AMI educational materials, and managing follow-up surveys or inquiries related to the installation experience.</t>
+  </si>
+  <si>
+    <t>Track activities for legacy meters removed by the MIV, including the physical reverse logistics from field to warehouse, sorting assets for potential testing/refurbishment versus scrapping, and ensuring vendor compliance with environmental regulations for disposal, all while maintaining asset tracking capability within the EAM until final disposition.</t>
+  </si>
+  <si>
+    <t>Discover and register the new meter onto the RF mesh network (via the HES)  immediately following physical installation, where the Head-End System (HES) attempts to; validating its security credentials and establishing bidirectional communications, and flagging non-communicating devices for immediate network troubleshooting</t>
+  </si>
+  <si>
+    <t>Transition a newly installed meter from "installed" status to "billing active," ensuring that interval data is successfully flowing from the HES to the MDMS, that initial VEE rules are applied without critical errors, and that the MDMS and CIS are aligned on the device configuration to enable accurate future billing.</t>
+  </si>
+  <si>
+    <t>Perform (BAU) meter installations (e.g., new construction, reactive replacements), initiated by CIS or EAM requests, flowing through Mobile Workforce Management (MWM) for utility crew dispatch, field execution, and the subsequent back-office provisioning and system synchronization steps.</t>
+  </si>
+  <si>
+    <t>Physically remove metering assets from the field (due to service retirement or defect), capture of a certified final register read for billing closure in CIS, change the asset status in EAM to "removed," and de-provision the device credentials in the HES to prevent unauthorized future network access.</t>
+  </si>
+  <si>
+    <t>Perform automated workflow triggered by a customer move-out request in CIS, orchestrating a remote disconnect command via the MDMS and HES to the meter's internal switch, validating successful state change via HES feedback, and updating service status in CIS, including handling communication failures that require a manual field truck roll.</t>
+  </si>
+  <si>
+    <t>Peform automated workflow triggered by a new customer move-in request in CIS, orchestrating a remote connect command via the MDMS and HES to restore service, validating voltage presence at the meter, and updating account status in CIS, including managing exceptions where MDMS safety checks prevent remote reconnection.</t>
+  </si>
+  <si>
+    <t>Conduct workflow initiated by the CIS collections module for delinquent accounts, validating eligibility for remote disconnection, executing the command via MDMS and HES, and updating the account credit status, while rigorously managing exceptions for critical care customers or medical baseline accounts identified in CIS.</t>
+  </si>
+  <si>
+    <t>Conduct near-real-time workflow triggered by payment receipt in CIS, immediately issuing a remote reconnect command via MDMS and HES to restore service, verifying successful reconnection through meter feedback, and notifying the customer, including handling technical failures that delay restoration.</t>
+  </si>
+  <si>
+    <t>Manage installation of AMI field network infrastructure (e.g., Take-out Points, Relays), involving site acquisition planning, work order generation in EAM for installation or maintenance, field execution by telecommunications crews, and the technical commissioning of the devices into the HES network management layer.</t>
+  </si>
+  <si>
+    <t>Removal and decommission network infrastructure devices including required field work orders from EAM, updates topology maps in the HES to reflect the removal, and updates to asset status in EAM to ensure accurate network inventory.</t>
+  </si>
+  <si>
+    <t>Continuously monitor interval data from meters with a "disconnected" service status in CIS, identifying instances where voltage or load is detected despite the expected open switch state, and generating investigation cases for Revenue Protection to address potential tampering or switch failures.</t>
+  </si>
+  <si>
+    <t>Execute traditional billing cycles within the CIS for accounts remaining on scalar rates, utilizing validated start and stop register reads passed from the MDMS, applying rate schedules, calculating usage and charges, and performing pre-bill validation checks to identify and hold anomalous bills for manual review.</t>
+  </si>
+  <si>
+    <t>Format, generate and distribute final customer billing statements following successful bill calculation in CIS, managing interfaces to third-party print vendors for physical mail and digital platforms for e-bill delivery, and tracking delivery status while managing exceptions related to invalid addresses or bounced emails.</t>
+  </si>
+  <si>
+    <t>Execute workflow required to correct previously issued bills within CIS, triggered by revised usage data from MDMS or retroactive rate changes, involving the reversal of original financial charges, recalculation based on corrected parameters, generation of a corrected statement, and management of customer notification regarding the adjustment.</t>
+  </si>
+  <si>
+    <t>Manager customer requests to refuse smart meter installation before deployment, involving capturing the request in CIS/CRM, validating eligibility against regulatory rules, and critically, integrating with the MIV deployment planning system to place a "do not install" hold on the premise to prevent accidental installation.</t>
+  </si>
+  <si>
+    <t>Manage customer requests to opt-out after an AMI meter has been installed, involving eligibility validation in CIS, generating a field work order in EAM/MWM to exchange the communicating meter for a non-communicating digital device, and updating CIS billing parameters to reflect the opt-out status and any associated fees.</t>
+  </si>
+  <si>
+    <t>Execute disabling the RF radio capability on an existing AMI meter for customers who choose to opt-out but where a physical meter exchange is not immediately required or possible, involving issuing a configuration command from the HES and verifying the cessation of communication.</t>
+  </si>
+  <si>
+    <t>Execute re-enabling the RF radio capability on a previously disabled AMI meter for customers who choose to opt-in to the AMI program, involving issuing a configuration command from the HES, verifying network re-registration, and updating CIS status.</t>
+  </si>
+  <si>
+    <t>Generate and deliver value-added energy intelligence to customers via web portals and mobile apps, utilizing MDMS interval data fed into an analytics engine to provide usage breakdowns, peer comparisons, and personalized efficiency tips, requiring robust integration between MDMS, analytics platforms, and customer-facing channels.</t>
+  </si>
+  <si>
+    <t>Execute post-event workflow within the MDMS or a separate DR Management System to determine financial settlements for demand response participants, involving calculating Customer Baseline Loads (CBL) using historical interval data, measuring actual performance during the event window, calculating credits or penalties based on program rules, and passing these financial determinants to CIS for billing application.</t>
+  </si>
+  <si>
+    <t>Manage configuration within the HES/MDMS or Distributed Intelligence platform to define and maintain service panel capacity constraints for individual premises, pushing these parameters to edge applications on the meter to enable localized, autonomous throttling of EV charging load to prevent panel overloads.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Develop, schedule and manage automated reporting jobs within the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MDMS or BI platform to generate standardized, recurring reports (e.g., daily operational KPIs, monthly regulatory compliance filings), ensuring accurate data extraction, formatting, and timely distribution to defined stakeholder distribution lists via email or file share drop.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Design, build and maintain interactive data visualization dashboards within the enterprise BI platform (e.g., PowerBI, Tableau) connected to the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MDMS and Data Lake, translating raw AMI metrics into intuitive, persona-based views for monitoring network health, VEE performance, deployment progress, and customer usage trends, including managing user access roles and data refresh schedules.</t>
+    </r>
+  </si>
+  <si>
+    <t>Define and implement ongoing governance of security controls across the entire AMI architecture, including managing Role-Based Access Control (RBAC) policies in the HES, MDMS, and integrated systems, and ensuring adherence to encryption standards for data at rest in databases and in transit across networks to protect customer and grid data.</t>
+  </si>
+  <si>
+    <t>Process and analyze high-volume stream of device events (e.g., power fail, restore, tamper, diagnostic flags) flowing from the HES into the MDMS or event correlation engine, filtering noise to identify actionable conditions for grid operations, revenue protection, or asset management.</t>
+  </si>
+  <si>
+    <t>Operate and monitor of the data pipelines responsible for extracting validated interval, register, and event data from the MDMS operational data store and loading it into the enterprise Data Lake/Data Warehouse environment, ensuring data currency, completeness, and adherence to interface service level agreements (SLAs) for downstream analytics users.</t>
+  </si>
+  <si>
+    <t>Continuously monitor and analyze HES network performance data and device event logs to calculate reliability metrics (e.g., daily read success rates, mesh hop counts), identify poorly performing devices or network pockets, and detect systemic recurring issues for proactive maintenance.</t>
+  </si>
+  <si>
+    <t>Execute real-time, ad-hoc commands from various upstream systems (CIS, MDMS, OMS) via the HES to retrieve instantaneous register reads for move-in/out verification or to ping devices to confirm network connectivity during troubleshooting workflows, handling success/failure responses from the field.</t>
+  </si>
+  <si>
+    <t>Send specialized engineering commands via the HES to individual meters or groups to validate device health, retrieve diagnostic logs, confirm configuration parameter settings, or verify the successful application of a firmware patch, distinct from standard billing data retrieval.</t>
+  </si>
+  <si>
+    <t>Manage digital identities of all AMI devices, involving tracking certificate expiration dates within a Public Key Infrastructure (PKI) management platform and the HES, planning and executing secure over-the-air certificate renewal campaigns before expiry to prevent devices from becoming permanently disconnected (orphaned) from the network.</t>
+  </si>
+  <si>
+    <t>Deliver automated, multi-channel communications triggered by outage events and status changes in the OMS, utilizing customer contact preferences from CIS to deliver timely notifications regarding outage confirmation, estimated restoration times (ERTs), and final restoration verification via text, email, or voice.</t>
+  </si>
+  <si>
+    <t>Execute on-demand "system pings" from the OMS or grid operations desk via the HES to a select group of meters to surgically verify the scope of an outage area or confirm partial restoration scenarios (e.g., "nested" outages), without prematurely triggering automated restoration logic in the OMS.</t>
+  </si>
+  <si>
+    <t>Identify characteristic signatures of a floating or loose neutral connection at a premise or transformer (using HES and/or MDMS voltage and impedance data to), generating prioritized preventative maintenance orders in EAM/MWM before the condition leads to customer equipment damage or safety issues.</t>
+  </si>
+  <si>
+    <t>Identify high-temperature alarms from meter event logs in the HES and conduct immediate automated validation logic in the HES/MDMS to filter false positives, followed by instantaneous execution of a remote disconnect command (if enabled) and/or high-priority dispatch of field crews via OMS/MWM to investigate a potential fire hazard.</t>
+  </si>
+  <si>
+    <t>Aggregate individual meter interval data from the MDMS up through the defined GIS connectivity model to calculate total loading on service transformers and feeder sections, monitoring these aggregated values against equipment ratings to detect overloading or severe phase imbalances.</t>
+  </si>
+  <si>
+    <t>Detect meters (using HES or MDMS data) showing persistent reverse power flow (generation) signatures, compare these flags against approved interconnection records in CIS/EAM, and generate investigation cases for unapproved installations that pose safety or grid reliability risks.</t>
+  </si>
+  <si>
+    <t>Combine interval load data from the MDMS with demographic, program participation, and premises data from CIS to create rich customer load profiles, improve the accuracy of demand forecasting and enabe more nuanced detection of abnormal usage patterns.</t>
+  </si>
+  <si>
+    <t>Identify premises with Electric Vehicle (EV) chargers based on characteristic load signatures (magnitude, duration, time of use), tagging these premises in CIS/MDMS to refine load forecasting models and target EV-specific programs.</t>
+  </si>
+  <si>
+    <t>Ingest, process and monitor of non-standard telemetry streams from AMI-enabled environmental sensors via the HES and MDMS, making this data available to operational dashboards and planning systems for situational awareness regarding localized weather, seismic events, or air quality conditions.</t>
+  </si>
+  <si>
+    <t>Process high-resolution voltage angle data or phase identification signal results from AMI meters (using MDMS or grid analytics platforms), identifying discrepancies between physical phase connectivity and the record in GIS, and generating data correction requests to update the connectivity model.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2429,6 +2588,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="EYInterstate Light"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2535,7 +2701,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2583,6 +2749,18 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3720,7 +3898,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3B2941B5-ACDB-40EF-B7BA-9F0A5B11F66C}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3B2941B5-ACDB-40EF-B7BA-9F0A5B11F66C}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A18:B26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -4137,15 +4315,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8892926-E8FC-4E51-8265-E6D97D7EE353}">
   <dimension ref="A1:H107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.42578125" customWidth="1"/>
     <col min="2" max="2" width="52" customWidth="1"/>
-    <col min="3" max="3" width="63.85546875" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" customWidth="1"/>
     <col min="4" max="4" width="73.42578125" customWidth="1"/>
     <col min="5" max="5" width="54.140625" customWidth="1"/>
     <col min="6" max="6" width="41" customWidth="1"/>
@@ -4163,7 +4341,7 @@
       <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="10" t="s">
@@ -4205,7 +4383,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>8</v>
       </c>
@@ -4215,8 +4393,8 @@
       <c r="C3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>17</v>
+      <c r="D3" s="18" t="s">
+        <v>657</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>12</v>
@@ -4231,7 +4409,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>8</v>
       </c>
@@ -4241,8 +4419,8 @@
       <c r="C4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>20</v>
+      <c r="D4" s="18" t="s">
+        <v>655</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>21</v>
@@ -4361,7 +4539,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
@@ -4371,8 +4549,8 @@
       <c r="C9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>33</v>
+      <c r="D9" s="18" t="s">
+        <v>656</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>12</v>
@@ -4439,7 +4617,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>38</v>
       </c>
@@ -4449,8 +4627,8 @@
       <c r="C12" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>44</v>
+      <c r="D12" s="18" t="s">
+        <v>658</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>12</v>
@@ -4465,21 +4643,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="18" t="s">
+        <v>659</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>47</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>48</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>13</v>
@@ -4491,18 +4669,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>51</v>
+        <v>660</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>662</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>12</v>
@@ -4517,18 +4695,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>661</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>12</v>
@@ -4543,18 +4721,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>663</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>12</v>
@@ -4569,21 +4747,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>57</v>
+        <v>53</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>664</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>13</v>
@@ -4600,13 +4778,13 @@
         <v>38</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>12</v>
@@ -4626,13 +4804,13 @@
         <v>38</v>
       </c>
       <c r="B19" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>61</v>
-      </c>
       <c r="D19" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>12</v>
@@ -4647,7 +4825,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>38</v>
       </c>
@@ -4655,10 +4833,10 @@
         <v>27</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>665</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>12</v>
@@ -4675,25 +4853,25 @@
     </row>
     <row r="21" spans="1:8" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>67</v>
+        <v>63</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>666</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H21" s="11" t="s">
         <v>15</v>
@@ -4701,42 +4879,42 @@
     </row>
     <row r="22" spans="1:8" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>667</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G22" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="H22" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>72</v>
-      </c>
       <c r="C23" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>74</v>
+        <v>70</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>668</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>12</v>
@@ -4753,16 +4931,16 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B24" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>75</v>
-      </c>
       <c r="D24" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>12</v>
@@ -4779,19 +4957,19 @@
     </row>
     <row r="25" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F25" s="11" t="s">
         <v>13</v>
@@ -4805,42 +4983,42 @@
     </row>
     <row r="26" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F26" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="11" t="s">
+      <c r="G26" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D26" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>84</v>
+      <c r="D27" s="20" t="s">
+        <v>669</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>12</v>
@@ -4855,18 +5033,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>87</v>
+        <v>83</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>670</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>12</v>
@@ -4881,18 +5059,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>89</v>
+        <v>84</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>671</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>12</v>
@@ -4907,18 +5085,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B30" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>91</v>
+      <c r="D30" s="20" t="s">
+        <v>672</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>12</v>
@@ -4933,18 +5111,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>93</v>
+        <v>87</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>673</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>12</v>
@@ -4959,18 +5137,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>96</v>
+        <v>90</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>674</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>21</v>
@@ -4985,18 +5163,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>98</v>
+        <v>91</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>675</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>12</v>
@@ -5013,25 +5191,25 @@
     </row>
     <row r="34" spans="1:8" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H34" s="11" t="s">
         <v>15</v>
@@ -5039,25 +5217,25 @@
     </row>
     <row r="35" spans="1:8" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="D35" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="C35" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>106</v>
-      </c>
       <c r="E35" s="11" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="H35" s="11" t="s">
         <v>15</v>
@@ -5065,19 +5243,19 @@
     </row>
     <row r="36" spans="1:8" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F36" s="11" t="s">
         <v>13</v>
@@ -5091,16 +5269,16 @@
     </row>
     <row r="37" spans="1:8" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>12</v>
@@ -5117,25 +5295,25 @@
     </row>
     <row r="38" spans="1:8" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>114</v>
+        <v>107</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>676</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="H38" s="11" t="s">
         <v>15</v>
@@ -5143,19 +5321,19 @@
     </row>
     <row r="39" spans="1:8" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F39" s="11" t="s">
         <v>13</v>
@@ -5169,19 +5347,19 @@
     </row>
     <row r="40" spans="1:8" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D40" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="B40" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>122</v>
-      </c>
       <c r="E40" s="11" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F40" s="11" t="s">
         <v>13</v>
@@ -5195,19 +5373,19 @@
     </row>
     <row r="41" spans="1:8" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B41" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C41" s="11" t="s">
-        <v>123</v>
-      </c>
       <c r="D41" s="11" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F41" s="11" t="s">
         <v>34</v>
@@ -5221,22 +5399,22 @@
     </row>
     <row r="42" spans="1:8" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>14</v>
@@ -5245,21 +5423,21 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>129</v>
+        <v>122</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>677</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F43" s="11" t="s">
         <v>13</v>
@@ -5271,21 +5449,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>131</v>
+        <v>123</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>678</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F44" s="11" t="s">
         <v>13</v>
@@ -5299,19 +5477,19 @@
     </row>
     <row r="45" spans="1:8" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F45" s="11" t="s">
         <v>13</v>
@@ -5325,19 +5503,19 @@
     </row>
     <row r="46" spans="1:8" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F46" s="11" t="s">
         <v>34</v>
@@ -5351,22 +5529,22 @@
     </row>
     <row r="47" spans="1:8" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G47" s="11" t="s">
         <v>14</v>
@@ -5375,21 +5553,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>139</v>
+        <v>131</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>679</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F48" s="11" t="s">
         <v>13</v>
@@ -5403,19 +5581,19 @@
     </row>
     <row r="49" spans="1:8" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F49" s="11" t="s">
         <v>13</v>
@@ -5429,19 +5607,19 @@
     </row>
     <row r="50" spans="1:8" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F50" s="11" t="s">
         <v>13</v>
@@ -5455,19 +5633,19 @@
     </row>
     <row r="51" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F51" s="11" t="s">
         <v>13</v>
@@ -5481,19 +5659,19 @@
     </row>
     <row r="52" spans="1:8" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F52" s="11" t="s">
         <v>13</v>
@@ -5507,42 +5685,42 @@
     </row>
     <row r="53" spans="1:8" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="H53" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>157</v>
+        <v>149</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>680</v>
       </c>
       <c r="E54" s="11" t="s">
         <v>12</v>
@@ -5557,18 +5735,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>159</v>
+        <v>151</v>
+      </c>
+      <c r="D55" s="20" t="s">
+        <v>681</v>
       </c>
       <c r="E55" s="11" t="s">
         <v>12</v>
@@ -5583,18 +5761,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>161</v>
+        <v>153</v>
+      </c>
+      <c r="D56" s="21" t="s">
+        <v>682</v>
       </c>
       <c r="E56" s="11" t="s">
         <v>12</v>
@@ -5609,18 +5787,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B57" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C57" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="C57" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>163</v>
+      <c r="D57" s="21" t="s">
+        <v>683</v>
       </c>
       <c r="E57" s="11" t="s">
         <v>12</v>
@@ -5637,16 +5815,16 @@
     </row>
     <row r="58" spans="1:8" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E58" s="11" t="s">
         <v>12</v>
@@ -5663,16 +5841,16 @@
     </row>
     <row r="59" spans="1:8" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E59" s="11" t="s">
         <v>12</v>
@@ -5689,25 +5867,25 @@
     </row>
     <row r="60" spans="1:8" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D60" s="11" t="s">
-        <v>170</v>
+        <v>162</v>
+      </c>
+      <c r="D60" s="21" t="s">
+        <v>684</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="H60" s="11" t="s">
         <v>15</v>
@@ -5715,16 +5893,16 @@
     </row>
     <row r="61" spans="1:8" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E61" s="11" t="s">
         <v>12</v>
@@ -5741,48 +5919,48 @@
     </row>
     <row r="62" spans="1:8" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="H62" s="11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="D63" s="11" t="s">
-        <v>183</v>
+        <v>175</v>
+      </c>
+      <c r="D63" s="21" t="s">
+        <v>685</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G63" s="11" t="s">
         <v>14</v>
@@ -5791,24 +5969,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>185</v>
+        <v>177</v>
+      </c>
+      <c r="D64" s="21" t="s">
+        <v>686</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G64" s="11" t="s">
         <v>14</v>
@@ -5819,22 +5997,22 @@
     </row>
     <row r="65" spans="1:8" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G65" s="11" t="s">
         <v>14</v>
@@ -5845,45 +6023,45 @@
     </row>
     <row r="66" spans="1:8" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="11" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="H66" s="11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="11" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B67" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="D67" s="21" t="s">
+        <v>705</v>
+      </c>
+      <c r="E67" s="11" t="s">
         <v>192</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="D67" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="E67" s="11" t="s">
-        <v>199</v>
       </c>
       <c r="F67" s="11" t="s">
         <v>34</v>
@@ -5895,21 +6073,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="11" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="D68" s="11" t="s">
-        <v>202</v>
+        <v>194</v>
+      </c>
+      <c r="D68" s="21" t="s">
+        <v>704</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="F68" s="11" t="s">
         <v>34</v>
@@ -5921,24 +6099,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="11" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>206</v>
+        <v>198</v>
+      </c>
+      <c r="D69" s="21" t="s">
+        <v>703</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G69" s="11" t="s">
         <v>14</v>
@@ -5949,22 +6127,22 @@
     </row>
     <row r="70" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="11" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G70" s="11" t="s">
         <v>14</v>
@@ -5975,22 +6153,22 @@
     </row>
     <row r="71" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="11" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B71" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="D71" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C71" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>211</v>
-      </c>
       <c r="E71" s="11" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G71" s="11" t="s">
         <v>14</v>
@@ -5999,24 +6177,24 @@
         <v>42</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="11" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="D72" s="11" t="s">
-        <v>213</v>
+        <v>205</v>
+      </c>
+      <c r="D72" s="21" t="s">
+        <v>702</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G72" s="11" t="s">
         <v>14</v>
@@ -6025,21 +6203,21 @@
         <v>42</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="11" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="D73" s="11" t="s">
-        <v>216</v>
+        <v>208</v>
+      </c>
+      <c r="D73" s="21" t="s">
+        <v>701</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="F73" s="11" t="s">
         <v>34</v>
@@ -6051,27 +6229,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="11" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="D74" s="11" t="s">
-        <v>220</v>
+        <v>212</v>
+      </c>
+      <c r="D74" s="21" t="s">
+        <v>700</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="H74" s="11" t="s">
         <v>42</v>
@@ -6079,22 +6257,22 @@
     </row>
     <row r="75" spans="1:8" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="11" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G75" s="11" t="s">
         <v>14</v>
@@ -6105,22 +6283,22 @@
     </row>
     <row r="76" spans="1:8" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="11" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B76" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="C76" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="C76" s="11" t="s">
-        <v>225</v>
-      </c>
       <c r="D76" s="11" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G76" s="11" t="s">
         <v>14</v>
@@ -6131,25 +6309,25 @@
     </row>
     <row r="77" spans="1:8" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="11" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G77" s="11" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="H77" s="11" t="s">
         <v>15</v>
@@ -6157,25 +6335,25 @@
     </row>
     <row r="78" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="11" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="H78" s="11" t="s">
         <v>15</v>
@@ -6183,25 +6361,25 @@
     </row>
     <row r="79" spans="1:8" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="11" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B79" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="C79" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="C79" s="11" t="s">
-        <v>234</v>
-      </c>
       <c r="D79" s="11" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="H79" s="11" t="s">
         <v>42</v>
@@ -6209,22 +6387,22 @@
     </row>
     <row r="80" spans="1:8" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="11" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G80" s="11" t="s">
         <v>14</v>
@@ -6235,71 +6413,71 @@
     </row>
     <row r="81" spans="1:8" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="11" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="H81" s="11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="11" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B82" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="D82" s="21" t="s">
+        <v>699</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="F82" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G82" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="H82" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="D83" s="21" t="s">
+        <v>698</v>
+      </c>
+      <c r="E83" s="11" t="s">
         <v>244</v>
-      </c>
-      <c r="C82" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="D82" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="E82" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="F82" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="G82" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="H82" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="B83" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="C83" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="D83" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="E83" s="11" t="s">
-        <v>251</v>
       </c>
       <c r="F83" s="11" t="s">
         <v>34</v>
@@ -6313,19 +6491,19 @@
     </row>
     <row r="84" spans="1:8" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="11" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="F84" s="11" t="s">
         <v>34</v>
@@ -6339,19 +6517,19 @@
     </row>
     <row r="85" spans="1:8" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="11" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="F85" s="11" t="s">
         <v>34</v>
@@ -6363,24 +6541,24 @@
         <v>42</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="11" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="D86" s="11" t="s">
-        <v>260</v>
+        <v>252</v>
+      </c>
+      <c r="D86" s="21" t="s">
+        <v>697</v>
       </c>
       <c r="E86" s="11" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G86" s="11" t="s">
         <v>14</v>
@@ -6391,22 +6569,22 @@
     </row>
     <row r="87" spans="1:8" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="11" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G87" s="11" t="s">
         <v>14</v>
@@ -6415,53 +6593,53 @@
         <v>42</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="11" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C88" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="D88" s="21" t="s">
+        <v>696</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="F88" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="G88" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="H88" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="D89" s="21" t="s">
+        <v>654</v>
+      </c>
+      <c r="E89" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="D88" s="11" t="s">
+      <c r="F89" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="G89" s="11" t="s">
         <v>265</v>
-      </c>
-      <c r="E88" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="F88" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="G88" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="H88" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="B89" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="C89" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="D89" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="E89" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="F89" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="G89" s="11" t="s">
-        <v>272</v>
       </c>
       <c r="H89" s="11" t="s">
         <v>42</v>
@@ -6469,22 +6647,22 @@
     </row>
     <row r="90" spans="1:8" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="11" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B90" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E90" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="C90" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="D90" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="E90" s="11" t="s">
-        <v>275</v>
-      </c>
       <c r="F90" s="11" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G90" s="11" t="s">
         <v>14</v>
@@ -6495,16 +6673,16 @@
     </row>
     <row r="91" spans="1:8" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="11" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="E91" s="11" t="s">
         <v>21</v>
@@ -6519,18 +6697,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="11" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="D92" s="11" t="s">
-        <v>281</v>
+        <v>273</v>
+      </c>
+      <c r="D92" s="21" t="s">
+        <v>695</v>
       </c>
       <c r="E92" s="11" t="s">
         <v>21</v>
@@ -6547,16 +6725,16 @@
     </row>
     <row r="93" spans="1:8" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="D93" s="11" t="s">
         <v>276</v>
-      </c>
-      <c r="B93" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="C93" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="D93" s="11" t="s">
-        <v>283</v>
       </c>
       <c r="E93" s="11" t="s">
         <v>21</v>
@@ -6569,42 +6747,42 @@
     </row>
     <row r="94" spans="1:8" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="11" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B94" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C94" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="C94" s="11" t="s">
-        <v>284</v>
-      </c>
       <c r="D94" s="11" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="E94" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F94" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G94" s="11" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="H94" s="11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="11" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="D95" s="11" t="s">
-        <v>289</v>
+        <v>281</v>
+      </c>
+      <c r="D95" s="21" t="s">
+        <v>693</v>
       </c>
       <c r="E95" s="11" t="s">
         <v>12</v>
@@ -6619,18 +6797,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="11" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="D96" s="11" t="s">
-        <v>291</v>
+        <v>283</v>
+      </c>
+      <c r="D96" s="21" t="s">
+        <v>694</v>
       </c>
       <c r="E96" s="11" t="s">
         <v>12</v>
@@ -6647,25 +6825,25 @@
     </row>
     <row r="97" spans="1:8" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="11" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="D97" s="11" t="s">
-        <v>293</v>
+        <v>285</v>
+      </c>
+      <c r="D97" s="21" t="s">
+        <v>692</v>
       </c>
       <c r="E97" s="11" t="s">
         <v>21</v>
       </c>
       <c r="F97" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G97" s="11" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="H97" s="11" t="s">
         <v>15</v>
@@ -6673,25 +6851,25 @@
     </row>
     <row r="98" spans="1:8" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="11" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="D98" s="11" t="s">
-        <v>298</v>
+        <v>290</v>
+      </c>
+      <c r="D98" s="21" t="s">
+        <v>691</v>
       </c>
       <c r="E98" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F98" s="11" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="G98" s="11" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="H98" s="11" t="s">
         <v>15</v>
@@ -6699,16 +6877,16 @@
     </row>
     <row r="99" spans="1:8" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="B99" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="C99" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="B99" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="C99" s="11" t="s">
-        <v>302</v>
-      </c>
       <c r="D99" s="11" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="E99" s="11" t="s">
         <v>12</v>
@@ -6723,25 +6901,25 @@
     </row>
     <row r="100" spans="1:8" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="11" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="D100" s="11" t="s">
-        <v>306</v>
+        <v>298</v>
+      </c>
+      <c r="D100" s="21" t="s">
+        <v>690</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="F100" s="11" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="G100" s="11" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="H100" s="11" t="s">
         <v>15</v>
@@ -6749,25 +6927,25 @@
     </row>
     <row r="101" spans="1:8" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="11" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="D101" s="11" t="s">
-        <v>311</v>
+        <v>303</v>
+      </c>
+      <c r="D101" s="21" t="s">
+        <v>689</v>
       </c>
       <c r="E101" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="G101" s="11" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="H101" s="11" t="s">
         <v>15</v>
@@ -6775,25 +6953,25 @@
     </row>
     <row r="102" spans="1:8" ht="157.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="11" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="D102" s="13" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="F102" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G102" s="11" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="H102" s="11" t="s">
         <v>15</v>
@@ -6801,22 +6979,22 @@
     </row>
     <row r="103" spans="1:8" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="11" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G103" s="11" t="s">
         <v>14</v>
@@ -6827,22 +7005,22 @@
     </row>
     <row r="104" spans="1:8" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="11" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="D104" s="13" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G104" s="11" t="s">
         <v>14</v>
@@ -6851,24 +7029,24 @@
         <v>42</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" ht="90" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="11" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="D105" s="11" t="s">
-        <v>326</v>
+        <v>318</v>
+      </c>
+      <c r="D105" s="21" t="s">
+        <v>688</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="F105" s="11" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G105" s="11" t="s">
         <v>14</v>
@@ -6877,24 +7055,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="11" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="D106" s="11" t="s">
-        <v>329</v>
+        <v>321</v>
+      </c>
+      <c r="D106" s="21" t="s">
+        <v>687</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="F106" s="11" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G106" s="11" t="s">
         <v>14</v>
@@ -6905,22 +7083,22 @@
     </row>
     <row r="107" spans="1:8" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="11" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="E107" s="11" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="F107" s="11" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G107" s="11" t="s">
         <v>14</v>
@@ -6941,7 +7119,7 @@
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="F8" sqref="F8:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6961,18 +7139,18 @@
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P1" s="9" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O2" s="14" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="P2" s="16" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="Q2" s="16">
         <v>0</v>
@@ -6980,66 +7158,66 @@
     </row>
     <row r="3" spans="1:17" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O3" s="15" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="P3" s="17" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="Q3" s="17" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O4" s="15" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="P4" s="17" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="Q4" s="17" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O5" s="15" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="P5" s="17" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="Q5" s="17" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="E6" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="I6" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -7099,7 +7277,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B10" s="8">
         <v>29</v>
@@ -7108,7 +7286,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F10" s="8">
         <v>21</v>
@@ -7117,7 +7295,7 @@
         <v>12</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="J10" s="8">
         <f>GETPIVOTDATA("L3 Process Name",$A$18,"IT Release","IT Release 3")</f>
@@ -7140,10 +7318,10 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="B18" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -7156,7 +7334,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -7164,7 +7342,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B21">
         <v>14</v>
@@ -7172,7 +7350,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -7188,7 +7366,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B24">
         <v>6</v>
@@ -7196,7 +7374,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B25">
         <v>20</v>
@@ -7204,7 +7382,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="B26">
         <v>106</v>
@@ -7249,13 +7427,13 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -7266,10 +7444,10 @@
         <v>22</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>21</v>
@@ -7284,160 +7462,160 @@
         <v>15</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="E6" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>364</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>367</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>21</v>
@@ -7446,353 +7624,353 @@
         <v>13</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="195" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="195" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>34</v>
@@ -7801,33 +7979,33 @@
         <v>18</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>15</v>
@@ -7835,22 +8013,22 @@
     </row>
     <row r="23" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>18</v>
@@ -7858,19 +8036,19 @@
     </row>
     <row r="24" spans="1:10" ht="270" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>13</v>
@@ -7879,13 +8057,13 @@
         <v>15</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -7893,16 +8071,16 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>13</v>
@@ -7916,13 +8094,13 @@
         <v>38</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>21</v>
@@ -7934,29 +8112,29 @@
         <v>42</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>15</v>
@@ -7964,22 +8142,22 @@
     </row>
     <row r="28" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>15</v>
@@ -7987,48 +8165,48 @@
     </row>
     <row r="29" spans="1:10" ht="345" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>42</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="300" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>21</v>
@@ -8040,126 +8218,126 @@
         <v>15</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="195" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="255" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="240" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>34</v>
@@ -8168,62 +8346,62 @@
         <v>15</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>34</v>
@@ -8232,33 +8410,33 @@
         <v>42</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>474</v>
-      </c>
       <c r="D37" s="2" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>42</v>
@@ -8266,22 +8444,22 @@
     </row>
     <row r="38" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>15</v>
@@ -8289,22 +8467,22 @@
     </row>
     <row r="39" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>15</v>
@@ -8312,51 +8490,51 @@
     </row>
     <row r="40" spans="1:10" ht="210" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>34</v>
@@ -8367,19 +8545,19 @@
     </row>
     <row r="42" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>34</v>
@@ -8390,22 +8568,22 @@
     </row>
     <row r="43" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>42</v>
@@ -8413,22 +8591,22 @@
     </row>
     <row r="44" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>15</v>
@@ -8436,22 +8614,22 @@
     </row>
     <row r="45" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>496</v>
-      </c>
       <c r="D45" s="2" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>15</v>
@@ -8517,10 +8695,10 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>12</v>
@@ -8543,10 +8721,10 @@
         <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>12</v>
@@ -8569,10 +8747,10 @@
         <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>12</v>
@@ -8673,10 +8851,10 @@
         <v>27</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>12</v>
@@ -8702,7 +8880,7 @@
         <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>12</v>
@@ -8728,7 +8906,7 @@
         <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>12</v>
@@ -8751,10 +8929,10 @@
         <v>39</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>12</v>
@@ -8777,10 +8955,10 @@
         <v>39</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>12</v>
@@ -8800,16 +8978,16 @@
         <v>38</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>13</v>
@@ -8826,13 +9004,13 @@
         <v>38</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>12</v>
@@ -8852,13 +9030,13 @@
         <v>38</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>12</v>
@@ -8881,10 +9059,10 @@
         <v>27</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>12</v>
@@ -8904,16 +9082,16 @@
         <v>38</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>13</v>
@@ -8930,13 +9108,13 @@
         <v>38</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>12</v>
@@ -8962,7 +9140,7 @@
         <v>43</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>12</v>
@@ -8979,25 +9157,25 @@
     </row>
     <row r="20" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>15</v>
@@ -9005,25 +9183,25 @@
     </row>
     <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>15</v>
@@ -9031,16 +9209,16 @@
     </row>
     <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>21</v>
@@ -9057,25 +9235,25 @@
     </row>
     <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>15</v>
@@ -9083,25 +9261,25 @@
     </row>
     <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>18</v>
@@ -9109,25 +9287,25 @@
     </row>
     <row r="25" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>15</v>
@@ -9135,19 +9313,19 @@
     </row>
     <row r="26" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>13</v>
@@ -9161,19 +9339,19 @@
     </row>
     <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>13</v>
@@ -9187,19 +9365,19 @@
     </row>
     <row r="28" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>13</v>
@@ -9213,19 +9391,19 @@
     </row>
     <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>13</v>
@@ -9239,19 +9417,19 @@
     </row>
     <row r="30" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>13</v>
@@ -9265,19 +9443,19 @@
     </row>
     <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>13</v>
@@ -9291,19 +9469,19 @@
     </row>
     <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>13</v>
@@ -9317,25 +9495,25 @@
     </row>
     <row r="33" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>15</v>
@@ -9343,22 +9521,22 @@
     </row>
     <row r="34" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>183</v>
-      </c>
       <c r="E34" s="2" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>14</v>
@@ -9369,22 +9547,22 @@
     </row>
     <row r="35" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>14</v>
@@ -9395,25 +9573,25 @@
     </row>
     <row r="36" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>15</v>
@@ -9421,25 +9599,25 @@
     </row>
     <row r="37" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>15</v>
@@ -9447,25 +9625,25 @@
     </row>
     <row r="38" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>18</v>
@@ -9473,25 +9651,25 @@
     </row>
     <row r="39" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>15</v>
@@ -9499,19 +9677,19 @@
     </row>
     <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>13</v>
@@ -9525,19 +9703,19 @@
     </row>
     <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>13</v>
@@ -9551,19 +9729,19 @@
     </row>
     <row r="42" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>13</v>
@@ -9577,22 +9755,22 @@
     </row>
     <row r="43" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>14</v>
@@ -9603,22 +9781,22 @@
     </row>
     <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>14</v>
@@ -9629,22 +9807,22 @@
     </row>
     <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>14</v>
@@ -9655,16 +9833,16 @@
     </row>
     <row r="46" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>12</v>
@@ -9681,16 +9859,16 @@
     </row>
     <row r="47" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>12</v>
@@ -9707,16 +9885,16 @@
     </row>
     <row r="48" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>12</v>
@@ -9733,16 +9911,16 @@
     </row>
     <row r="49" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>12</v>
@@ -9759,16 +9937,16 @@
     </row>
     <row r="50" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>12</v>
@@ -9785,16 +9963,16 @@
     </row>
     <row r="51" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>162</v>
-      </c>
       <c r="D51" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>12</v>
@@ -9811,16 +9989,16 @@
     </row>
     <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>12</v>
@@ -9837,25 +10015,25 @@
     </row>
     <row r="53" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>15</v>
@@ -9863,16 +10041,16 @@
     </row>
     <row r="54" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>21</v>
@@ -9889,16 +10067,16 @@
     </row>
     <row r="55" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>21</v>
@@ -9915,16 +10093,16 @@
     </row>
     <row r="56" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>12</v>
@@ -9941,25 +10119,25 @@
     </row>
     <row r="57" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>15</v>
@@ -9967,16 +10145,16 @@
     </row>
     <row r="58" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>12</v>
@@ -9993,25 +10171,25 @@
     </row>
     <row r="59" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>15</v>
@@ -10019,16 +10197,16 @@
     </row>
     <row r="60" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>12</v>
@@ -10045,19 +10223,19 @@
     </row>
     <row r="61" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>13</v>
@@ -10071,16 +10249,16 @@
     </row>
     <row r="62" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>12</v>
@@ -10097,16 +10275,16 @@
     </row>
     <row r="63" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="D63" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>12</v>
@@ -10123,16 +10301,16 @@
     </row>
     <row r="64" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>12</v>
@@ -10149,16 +10327,16 @@
     </row>
     <row r="65" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>12</v>
@@ -10175,19 +10353,19 @@
     </row>
     <row r="66" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>34</v>
@@ -10201,19 +10379,19 @@
     </row>
     <row r="67" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>34</v>
@@ -10227,19 +10405,19 @@
     </row>
     <row r="68" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>34</v>
@@ -10253,25 +10431,25 @@
     </row>
     <row r="69" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>15</v>
@@ -10279,25 +10457,25 @@
     </row>
     <row r="70" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>15</v>
@@ -10305,19 +10483,19 @@
     </row>
     <row r="71" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>34</v>
@@ -10331,25 +10509,25 @@
     </row>
     <row r="72" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>42</v>
@@ -10357,22 +10535,22 @@
     </row>
     <row r="73" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>14</v>
@@ -10383,22 +10561,22 @@
     </row>
     <row r="74" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>14</v>
@@ -10409,22 +10587,22 @@
     </row>
     <row r="75" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>14</v>
@@ -10435,25 +10613,25 @@
     </row>
     <row r="76" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>15</v>
@@ -10461,25 +10639,25 @@
     </row>
     <row r="77" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>15</v>
@@ -10487,25 +10665,25 @@
     </row>
     <row r="78" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>42</v>
@@ -10513,25 +10691,25 @@
     </row>
     <row r="79" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>15</v>
@@ -10539,19 +10717,19 @@
     </row>
     <row r="80" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>34</v>
@@ -10565,22 +10743,22 @@
     </row>
     <row r="81" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>14</v>
@@ -10591,22 +10769,22 @@
     </row>
     <row r="82" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>14</v>
@@ -10617,19 +10795,19 @@
     </row>
     <row r="83" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>34</v>
@@ -10643,22 +10821,22 @@
     </row>
     <row r="84" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>14</v>
@@ -10669,19 +10847,19 @@
     </row>
     <row r="85" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>611</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>34</v>
@@ -10695,25 +10873,25 @@
     </row>
     <row r="86" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C86" s="3" t="s">
-        <v>613</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>199</v>
-      </c>
       <c r="F86" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>15</v>
@@ -10721,19 +10899,19 @@
     </row>
     <row r="87" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="E87" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>34</v>
@@ -10747,19 +10925,19 @@
     </row>
     <row r="88" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>34</v>
@@ -10773,25 +10951,25 @@
     </row>
     <row r="89" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>15</v>
@@ -10799,19 +10977,19 @@
     </row>
     <row r="90" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>34</v>
@@ -10825,25 +11003,25 @@
     </row>
     <row r="91" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>15</v>
@@ -10851,25 +11029,25 @@
     </row>
     <row r="92" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="H92" s="2" t="s">
         <v>42</v>
@@ -10877,22 +11055,22 @@
     </row>
     <row r="93" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C93" s="3" t="s">
-        <v>629</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>275</v>
-      </c>
       <c r="F93" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>14</v>
@@ -10903,22 +11081,22 @@
     </row>
     <row r="94" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C94" s="3" t="s">
-        <v>631</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>275</v>
-      </c>
       <c r="F94" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>14</v>
@@ -10929,22 +11107,22 @@
     </row>
     <row r="95" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C95" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>275</v>
-      </c>
       <c r="F95" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>14</v>
@@ -10955,19 +11133,19 @@
     </row>
     <row r="96" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>34</v>
@@ -10981,16 +11159,16 @@
     </row>
     <row r="97" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>21</v>
@@ -11007,16 +11185,16 @@
     </row>
     <row r="98" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>21</v>
@@ -11033,19 +11211,19 @@
     </row>
     <row r="99" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>13</v>
@@ -11059,16 +11237,16 @@
     </row>
     <row r="100" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>12</v>
@@ -11085,16 +11263,16 @@
     </row>
     <row r="101" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>21</v>
@@ -11111,25 +11289,25 @@
     </row>
     <row r="102" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="H102" s="2" t="s">
         <v>15</v>
@@ -11137,25 +11315,25 @@
     </row>
     <row r="103" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="H103" s="2" t="s">
         <v>42</v>
@@ -11163,25 +11341,25 @@
     </row>
     <row r="104" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="H104" s="2" t="s">
         <v>15</v>
@@ -11189,25 +11367,25 @@
     </row>
     <row r="105" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="H105" s="2" t="s">
         <v>15</v>
@@ -11215,22 +11393,22 @@
     </row>
     <row r="106" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>14</v>
@@ -11241,22 +11419,22 @@
     </row>
     <row r="107" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>14</v>
@@ -11267,22 +11445,22 @@
     </row>
     <row r="108" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>14</v>
@@ -11293,25 +11471,25 @@
     </row>
     <row r="109" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="H109" s="2" t="s">
         <v>15</v>
@@ -11319,22 +11497,22 @@
     </row>
     <row r="110" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>14</v>
@@ -11345,25 +11523,25 @@
     </row>
     <row r="111" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="H111" s="2" t="s">
         <v>15</v>
@@ -11371,25 +11549,25 @@
     </row>
     <row r="112" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="H112" s="2" t="s">
         <v>15</v>
@@ -11397,25 +11575,25 @@
     </row>
     <row r="113" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="H113" s="2" t="s">
         <v>15</v>
@@ -11423,22 +11601,22 @@
     </row>
     <row r="114" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>14</v>
@@ -11449,22 +11627,22 @@
     </row>
     <row r="115" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>14</v>
@@ -11475,22 +11653,22 @@
     </row>
     <row r="116" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>14</v>
@@ -11507,6 +11685,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="139fca70-673f-44e1-94c2-b523bb9c108c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="7eaf932d-7370-48c5-9459-ae540daf9d7d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DFB9E5947890A84F90C1025035B3A9E9" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0fe1b0914d5c8b09183d39f4cd0f7192">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="139fca70-673f-44e1-94c2-b523bb9c108c" xmlns:ns3="7eaf932d-7370-48c5-9459-ae540daf9d7d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="356422204f896a562ca62bf92a067cf0" ns2:_="" ns3:_="">
     <xsd:import namespace="139fca70-673f-44e1-94c2-b523bb9c108c"/>
@@ -11713,27 +11911,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="139fca70-673f-44e1-94c2-b523bb9c108c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="7eaf932d-7370-48c5-9459-ae540daf9d7d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B57CF69-5D19-450C-935B-68EC43A8DA31}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="139fca70-673f-44e1-94c2-b523bb9c108c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="7eaf932d-7370-48c5-9459-ae540daf9d7d"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BB2BB8B-BA4E-4835-AC34-431A62162A7D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42A97454-B7ED-4BA8-A1AC-B982151F7AF7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11750,29 +11953,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B57CF69-5D19-450C-935B-68EC43A8DA31}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="139fca70-673f-44e1-94c2-b523bb9c108c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="7eaf932d-7370-48c5-9459-ae540daf9d7d"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BB2BB8B-BA4E-4835-AC34-431A62162A7D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/SCE AMI - Process Hierarchy.xlsx
+++ b/SCE AMI - Process Hierarchy.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eyus.sharepoint.com/sites/SCEPursuitTeam/Shared Documents/AMI 2.0 OCM PMO RFP/7 - Oral Presentation Rd 2/BRD Artifacts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eyus-my.sharepoint.com/personal/tony_calabro_ey_com/Documents/Desktop/Cursor/Hierarchy 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="776" documentId="8_{D0A48B66-DD14-4E33-BEEA-FA64DE0E4EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AAF7B64-D9F9-46E6-9284-DC50927ADA1D}"/>
+  <xr:revisionPtr revIDLastSave="777" documentId="8_{D0A48B66-DD14-4E33-BEEA-FA64DE0E4EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C13B03FF-F6C1-4D4B-99FF-566F4D3F79A7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C5CF7D8D-18C1-4DA6-BBC5-CBC3C1BDFBAD}"/>
   </bookViews>
@@ -2529,7 +2529,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2588,13 +2588,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="EYInterstate Light"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2701,7 +2694,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2755,12 +2748,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4315,8 +4302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8892926-E8FC-4E51-8265-E6D97D7EE353}">
   <dimension ref="A1:H107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4494,7 +4481,7 @@
       <c r="B7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="11" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="11" t="s">
@@ -4757,7 +4744,7 @@
       <c r="C17" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="18" t="s">
         <v>664</v>
       </c>
       <c r="E17" s="11" t="s">
@@ -4835,7 +4822,7 @@
       <c r="C20" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="18" t="s">
         <v>665</v>
       </c>
       <c r="E20" s="11" t="s">
@@ -4861,7 +4848,7 @@
       <c r="C21" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="18" t="s">
         <v>666</v>
       </c>
       <c r="E21" s="11" t="s">
@@ -4887,7 +4874,7 @@
       <c r="C22" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="18" t="s">
         <v>667</v>
       </c>
       <c r="E22" s="11" t="s">
@@ -4903,7 +4890,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>62</v>
       </c>
@@ -4913,7 +4900,7 @@
       <c r="C23" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="18" t="s">
         <v>668</v>
       </c>
       <c r="E23" s="11" t="s">
@@ -5017,7 +5004,7 @@
       <c r="C27" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="18" t="s">
         <v>669</v>
       </c>
       <c r="E27" s="11" t="s">
@@ -5043,7 +5030,7 @@
       <c r="C28" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="18" t="s">
         <v>670</v>
       </c>
       <c r="E28" s="11" t="s">
@@ -5069,7 +5056,7 @@
       <c r="C29" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="18" t="s">
         <v>671</v>
       </c>
       <c r="E29" s="11" t="s">
@@ -5095,7 +5082,7 @@
       <c r="C30" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="D30" s="18" t="s">
         <v>672</v>
       </c>
       <c r="E30" s="11" t="s">
@@ -5121,7 +5108,7 @@
       <c r="C31" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D31" s="18" t="s">
         <v>673</v>
       </c>
       <c r="E31" s="11" t="s">
@@ -5147,7 +5134,7 @@
       <c r="C32" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="D32" s="18" t="s">
         <v>674</v>
       </c>
       <c r="E32" s="11" t="s">
@@ -5173,7 +5160,7 @@
       <c r="C33" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D33" s="20" t="s">
+      <c r="D33" s="18" t="s">
         <v>675</v>
       </c>
       <c r="E33" s="11" t="s">
@@ -5303,7 +5290,7 @@
       <c r="C38" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="D38" s="20" t="s">
+      <c r="D38" s="18" t="s">
         <v>676</v>
       </c>
       <c r="E38" s="11" t="s">
@@ -5433,7 +5420,7 @@
       <c r="C43" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D43" s="20" t="s">
+      <c r="D43" s="18" t="s">
         <v>677</v>
       </c>
       <c r="E43" s="11" t="s">
@@ -5459,7 +5446,7 @@
       <c r="C44" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D44" s="20" t="s">
+      <c r="D44" s="18" t="s">
         <v>678</v>
       </c>
       <c r="E44" s="11" t="s">
@@ -5563,7 +5550,7 @@
       <c r="C48" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="D48" s="20" t="s">
+      <c r="D48" s="18" t="s">
         <v>679</v>
       </c>
       <c r="E48" s="11" t="s">
@@ -5719,7 +5706,7 @@
       <c r="C54" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="D54" s="20" t="s">
+      <c r="D54" s="18" t="s">
         <v>680</v>
       </c>
       <c r="E54" s="11" t="s">
@@ -5745,7 +5732,7 @@
       <c r="C55" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="D55" s="20" t="s">
+      <c r="D55" s="18" t="s">
         <v>681</v>
       </c>
       <c r="E55" s="11" t="s">
@@ -5771,7 +5758,7 @@
       <c r="C56" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="D56" s="21" t="s">
+      <c r="D56" s="11" t="s">
         <v>682</v>
       </c>
       <c r="E56" s="11" t="s">
@@ -5797,7 +5784,7 @@
       <c r="C57" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="D57" s="21" t="s">
+      <c r="D57" s="11" t="s">
         <v>683</v>
       </c>
       <c r="E57" s="11" t="s">
@@ -5875,7 +5862,7 @@
       <c r="C60" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="D60" s="21" t="s">
+      <c r="D60" s="11" t="s">
         <v>684</v>
       </c>
       <c r="E60" s="11" t="s">
@@ -5953,7 +5940,7 @@
       <c r="C63" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="D63" s="21" t="s">
+      <c r="D63" s="11" t="s">
         <v>685</v>
       </c>
       <c r="E63" s="11" t="s">
@@ -5979,7 +5966,7 @@
       <c r="C64" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="D64" s="21" t="s">
+      <c r="D64" s="11" t="s">
         <v>686</v>
       </c>
       <c r="E64" s="11" t="s">
@@ -6057,7 +6044,7 @@
       <c r="C67" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="D67" s="21" t="s">
+      <c r="D67" s="11" t="s">
         <v>705</v>
       </c>
       <c r="E67" s="11" t="s">
@@ -6083,7 +6070,7 @@
       <c r="C68" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="D68" s="21" t="s">
+      <c r="D68" s="11" t="s">
         <v>704</v>
       </c>
       <c r="E68" s="11" t="s">
@@ -6109,7 +6096,7 @@
       <c r="C69" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="D69" s="21" t="s">
+      <c r="D69" s="11" t="s">
         <v>703</v>
       </c>
       <c r="E69" s="11" t="s">
@@ -6187,7 +6174,7 @@
       <c r="C72" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="D72" s="21" t="s">
+      <c r="D72" s="11" t="s">
         <v>702</v>
       </c>
       <c r="E72" s="11" t="s">
@@ -6213,7 +6200,7 @@
       <c r="C73" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="D73" s="21" t="s">
+      <c r="D73" s="11" t="s">
         <v>701</v>
       </c>
       <c r="E73" s="11" t="s">
@@ -6239,7 +6226,7 @@
       <c r="C74" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="D74" s="21" t="s">
+      <c r="D74" s="11" t="s">
         <v>700</v>
       </c>
       <c r="E74" s="11" t="s">
@@ -6447,7 +6434,7 @@
       <c r="C82" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="D82" s="21" t="s">
+      <c r="D82" s="11" t="s">
         <v>699</v>
       </c>
       <c r="E82" s="11" t="s">
@@ -6473,7 +6460,7 @@
       <c r="C83" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="D83" s="21" t="s">
+      <c r="D83" s="11" t="s">
         <v>698</v>
       </c>
       <c r="E83" s="11" t="s">
@@ -6541,7 +6528,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="11" t="s">
         <v>184</v>
       </c>
@@ -6551,7 +6538,7 @@
       <c r="C86" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="D86" s="21" t="s">
+      <c r="D86" s="11" t="s">
         <v>697</v>
       </c>
       <c r="E86" s="11" t="s">
@@ -6603,7 +6590,7 @@
       <c r="C88" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="D88" s="21" t="s">
+      <c r="D88" s="11" t="s">
         <v>696</v>
       </c>
       <c r="E88" s="11" t="s">
@@ -6629,7 +6616,7 @@
       <c r="C89" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="D89" s="21" t="s">
+      <c r="D89" s="11" t="s">
         <v>654</v>
       </c>
       <c r="E89" s="11" t="s">
@@ -6707,7 +6694,7 @@
       <c r="C92" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="D92" s="21" t="s">
+      <c r="D92" s="11" t="s">
         <v>695</v>
       </c>
       <c r="E92" s="11" t="s">
@@ -6781,7 +6768,7 @@
       <c r="C95" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="D95" s="21" t="s">
+      <c r="D95" s="11" t="s">
         <v>693</v>
       </c>
       <c r="E95" s="11" t="s">
@@ -6807,7 +6794,7 @@
       <c r="C96" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="D96" s="21" t="s">
+      <c r="D96" s="11" t="s">
         <v>694</v>
       </c>
       <c r="E96" s="11" t="s">
@@ -6833,7 +6820,7 @@
       <c r="C97" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="D97" s="21" t="s">
+      <c r="D97" s="11" t="s">
         <v>692</v>
       </c>
       <c r="E97" s="11" t="s">
@@ -6859,7 +6846,7 @@
       <c r="C98" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="D98" s="21" t="s">
+      <c r="D98" s="11" t="s">
         <v>691</v>
       </c>
       <c r="E98" s="11" t="s">
@@ -6909,7 +6896,7 @@
       <c r="C100" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="D100" s="21" t="s">
+      <c r="D100" s="11" t="s">
         <v>690</v>
       </c>
       <c r="E100" s="11" t="s">
@@ -6935,7 +6922,7 @@
       <c r="C101" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="D101" s="21" t="s">
+      <c r="D101" s="11" t="s">
         <v>689</v>
       </c>
       <c r="E101" s="11" t="s">
@@ -7039,7 +7026,7 @@
       <c r="C105" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="D105" s="21" t="s">
+      <c r="D105" s="11" t="s">
         <v>688</v>
       </c>
       <c r="E105" s="11" t="s">
@@ -7065,7 +7052,7 @@
       <c r="C106" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="D106" s="21" t="s">
+      <c r="D106" s="11" t="s">
         <v>687</v>
       </c>
       <c r="E106" s="11" t="s">
@@ -11696,15 +11683,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DFB9E5947890A84F90C1025035B3A9E9" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0fe1b0914d5c8b09183d39f4cd0f7192">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="139fca70-673f-44e1-94c2-b523bb9c108c" xmlns:ns3="7eaf932d-7370-48c5-9459-ae540daf9d7d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="356422204f896a562ca62bf92a067cf0" ns2:_="" ns3:_="">
     <xsd:import namespace="139fca70-673f-44e1-94c2-b523bb9c108c"/>
@@ -11911,6 +11889,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B57CF69-5D19-450C-935B-68EC43A8DA31}">
   <ds:schemaRefs>
@@ -11929,14 +11916,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BB2BB8B-BA4E-4835-AC34-431A62162A7D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42A97454-B7ED-4BA8-A1AC-B982151F7AF7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11953,4 +11932,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BB2BB8B-BA4E-4835-AC34-431A62162A7D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SCE AMI - Process Hierarchy.xlsx
+++ b/SCE AMI - Process Hierarchy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eyus-my.sharepoint.com/personal/tony_calabro_ey_com/Documents/Desktop/Cursor/Hierarchy 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="777" documentId="8_{D0A48B66-DD14-4E33-BEEA-FA64DE0E4EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C13B03FF-F6C1-4D4B-99FF-566F4D3F79A7}"/>
+  <xr:revisionPtr revIDLastSave="779" documentId="8_{D0A48B66-DD14-4E33-BEEA-FA64DE0E4EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18A48E1F-1329-4AF7-8EE5-CF9CFC0A007D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C5CF7D8D-18C1-4DA6-BBC5-CBC3C1BDFBAD}"/>
   </bookViews>
@@ -4302,8 +4302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8892926-E8FC-4E51-8265-E6D97D7EE353}">
   <dimension ref="A1:H107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11683,6 +11683,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DFB9E5947890A84F90C1025035B3A9E9" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0fe1b0914d5c8b09183d39f4cd0f7192">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="139fca70-673f-44e1-94c2-b523bb9c108c" xmlns:ns3="7eaf932d-7370-48c5-9459-ae540daf9d7d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="356422204f896a562ca62bf92a067cf0" ns2:_="" ns3:_="">
     <xsd:import namespace="139fca70-673f-44e1-94c2-b523bb9c108c"/>
@@ -11889,15 +11898,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B57CF69-5D19-450C-935B-68EC43A8DA31}">
   <ds:schemaRefs>
@@ -11916,6 +11916,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BB2BB8B-BA4E-4835-AC34-431A62162A7D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42A97454-B7ED-4BA8-A1AC-B982151F7AF7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11932,12 +11940,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BB2BB8B-BA4E-4835-AC34-431A62162A7D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>